--- a/(2분반)2013136055_서정현_마이크로프로세서 및 실습_재료구매신청서 최종.xlsx
+++ b/(2분반)2013136055_서정현_마이크로프로세서 및 실습_재료구매신청서 최종.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/git/2013136087-2013136055-2013136091/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
+    <workbookView xWindow="27320" yWindow="3360" windowWidth="16000" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,25 +144,6 @@
   <si>
     <t>2분반</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPXDMBA7</t>
-  </si>
-  <si>
-    <t>Music Maker MP3 Shield for Arduino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPXCHGC6</t>
-  </si>
-  <si>
-    <t>소켓 점퍼케이블 DC-40P 20CM (M/F)</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1290797</t>
-  </si>
-  <si>
-    <t>아두이노 LM386 디지털 앰프 모듈 (스피커 포함)</t>
   </si>
   <si>
     <t xml:space="preserve">EE-SX1109 </t>
@@ -211,23 +195,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.eleparts.co.kr/EPXCAYGJ</t>
+  </si>
+  <si>
+    <t>https://www.eleparts.co.kr/EPXCTKH8</t>
+  </si>
+  <si>
+    <t>소켓 점퍼케이블 DC-40P 20CM(M/M) </t>
+  </si>
+  <si>
+    <t>GEC-23C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -236,7 +232,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -245,16 +241,10 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2C2C2C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -270,11 +260,11 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -360,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +369,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,19 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,120 +673,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>165653</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2337117</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1747630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8580783" y="16556936"/>
-          <a:ext cx="2171464" cy="1639955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>103301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2087217</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1648527</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8820977" y="18432714"/>
-          <a:ext cx="1681370" cy="1545226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132523</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>74546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2297856</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1722784</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8547653" y="20201285"/>
-          <a:ext cx="2165333" cy="1648238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>272145</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
@@ -818,7 +691,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -835,11 +708,99 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2249715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1741714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8545286" y="18324285"/>
+          <a:ext cx="2068286" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2068286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1632857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8654143" y="16564430"/>
+          <a:ext cx="1778000" cy="1505856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1101,86 +1062,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="70" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="70" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="33.625" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2013136055</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="135" customHeight="1">
+    <row r="7" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1224,12 +1185,12 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="135" customHeight="1">
+    <row r="8" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>2850</v>
@@ -1242,11 +1203,11 @@
         <v>14250</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="135" customHeight="1">
+    <row r="9" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1267,12 +1228,12 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="138.75" customHeight="1">
+    <row r="10" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>14880</v>
@@ -1288,7 +1249,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="168" customHeight="1">
+    <row r="11" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1309,7 +1270,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="168" customHeight="1">
+    <row r="12" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1330,7 +1291,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="158.25" customHeight="1">
+    <row r="13" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1352,7 +1313,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="158.25" customHeight="1">
+    <row r="14" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1373,82 +1334,62 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="147.75" customHeight="1">
+    <row r="15" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="2">
-        <v>39890</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>39890</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="141.75" customHeight="1">
+    <row r="16" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>935</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>(C16*D16)</f>
+        <v>4675</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="141.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6400</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6400</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(E7:E16)</f>
+        <v>107095</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <f>SUM(E7:E17)</f>
-        <v>148710</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1468,5 +1409,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
   <drawing r:id="rId6"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>